--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value24.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value24.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.205748112707425</v>
+        <v>4.728445529937744</v>
       </c>
       <c r="B1">
-        <v>1.37277933388348</v>
+        <v>3.94737982749939</v>
       </c>
       <c r="C1">
-        <v>1.377404879351199</v>
+        <v>3.478374242782593</v>
       </c>
       <c r="D1">
-        <v>1.613726061180045</v>
+        <v>4.362921714782715</v>
       </c>
       <c r="E1">
-        <v>2.192584101701425</v>
+        <v>5.182995319366455</v>
       </c>
     </row>
   </sheetData>
